--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,276 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-3.872359107260159</v>
       </c>
       <c r="D3">
-        <v>2009</v>
-      </c>
-      <c r="E3">
-        <v>-2.824221650093883</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-3.872359107260159</v>
+        <v>4.530477057343663</v>
       </c>
       <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>4.063186607895775</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>4.530477057343663</v>
+        <v>6.833902841285977</v>
       </c>
       <c r="D5">
-        <v>2011</v>
-      </c>
-      <c r="E5">
-        <v>6.404323597907235</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>6.833902841285977</v>
+        <v>4.166536506645224</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.379018979318605</v>
+        <v>2.693188401769642</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>4.166536506645224</v>
+        <v>2.669880057548091</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.313339498391165</v>
+        <v>3.947916604971446</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>2.669880057548091</v>
+        <v>5.50293301232252</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.973609545413994</v>
+        <v>4.998814576944932</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>5.50293301232252</v>
+        <v>4.829481320500406</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>5.107401516566701</v>
+        <v>4.673582741620552</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.829481320500406</v>
+        <v>5.100281927437122</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>5.448849700771508</v>
+        <v>4.372458986620376</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>5.100281927437122</v>
+        <v>5.161358932333737</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.890921874850185</v>
+        <v>4.927320050172312</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.161358932333737</v>
+        <v>5.902681694119694</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>5.938036641950228</v>
+        <v>4.339089271348406</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>5.902681694119694</v>
+        <v>3.884502719230132</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.844372712434674</v>
+        <v>3.243024666552685</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>3.884502719230132</v>
+        <v>-3.840397826549158</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>3.666264665660224</v>
+        <v>0.2915162802050064</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-3.840397826549158</v>
+        <v>0.4839811651348835</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.375052641466335</v>
+        <v>3.818597641626909</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.4839811651348835</v>
+        <v>2.06342951900429</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>4.93373128372403</v>
+        <v>0.6985632195332103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.06342951900429</v>
+        <v>-2.156362896191677</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.2251249147054546</v>
+        <v>0.3452735157291054</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.156362896191677</v>
+        <v>-0.8205034771073372</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.4555597068876871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>-0.8205034771073372</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>1.268511207459633</v>
+        <v>1.5902148106679</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,276 +417,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>7.226520411029069</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>4.268860212333636</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>-3.872359107260159</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-7.266312015249776</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>4.530477057343663</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>6.958243460951929</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>6.833902841285977</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
+      <c r="E5">
+        <v>12.21658306395068</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>9.469137444079934</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>4.166536506645224</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>2.693188401769642</v>
+        <v>8.079264579851909</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>3.358206407534947</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>2.669880057548091</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>3.947916604971446</v>
+        <v>4.701432377325987</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.3081076735359067</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>5.50293301232252</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>4.998814576944932</v>
+        <v>3.972902167062387</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>3.901355411819707</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>4.829481320500406</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>4.673582741620552</v>
+        <v>4.658857392675264</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>5.331683351557981</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>5.100281927437122</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>4.372458986620376</v>
+        <v>4.089819750351786</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>3.254758369308375</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>5.161358932333737</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>4.927320050172312</v>
+        <v>2.313009565865753</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>5.246209615995667</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>5.902681694119694</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>4.339089271348406</v>
+        <v>4.784022165496182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>4.86255966374296</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>3.884502719230132</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>3.243024666552685</v>
+        <v>4.112897401876747</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2.764740011159428</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-3.840397826549158</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>0.2915162802050064</v>
+        <v>1.643374185611401</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-7.260793671746435</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>0.4839811651348835</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>3.818597641626909</v>
+        <v>0.00562230452727519</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>4.097586525396268</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>2.06342951900429</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>0.6985632195332103</v>
+        <v>3.9116372951149</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>7.824284864703746</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-2.156362896191677</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.3452735157291054</v>
+        <v>2.586378346096296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-1.24502235313334</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-1.561801765212567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.8205034771073372</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-1.735114423676209</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>1.5902148106679</v>
+      <c r="E19">
+        <v>2.409056355286521</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
@@ -641,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>0.00562230452727519</v>
+        <v>-5.080986607234472</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>3.9116372951149</v>
+        <v>4.326582230384801</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>2.586378346096296</v>
+        <v>5.010954047212612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-1.561801765212567</v>
+        <v>0.5676719215572001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>2.409056355286521</v>
+        <v>2.806286889124965</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>7.226520411029069</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -436,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>4.268860212333636</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -451,7 +445,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-7.266312015249776</v>
+        <v>-7.266312015249799</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -471,7 +465,7 @@
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>12.21658306395068</v>
+        <v>12.2165830639507</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,13 +476,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>9.469137444079934</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>8.079264579851909</v>
+        <v>8.07926457985193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,7 +493,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>3.358206407534947</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -533,7 +527,7 @@
         <v>2014</v>
       </c>
       <c r="C9">
-        <v>3.901355411819707</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="D9">
         <v>2015</v>
@@ -556,7 +550,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>4.089819750351786</v>
+        <v>4.089819750351809</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,7 +567,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>2.313009565865753</v>
+        <v>2.313009565865709</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,7 +578,7 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>5.246209615995667</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -601,13 +595,13 @@
         <v>2018</v>
       </c>
       <c r="C13">
-        <v>4.86255966374296</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="D13">
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>4.112897401876747</v>
+        <v>4.112897401876769</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,13 +612,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>2.764740011159428</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>1.643374185611401</v>
+        <v>1.643374185611379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,13 +629,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-7.260793671746435</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-5.080986607234472</v>
+        <v>-5.080986607234461</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,7 +646,7 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>4.097586525396268</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -669,7 +663,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>7.824284864703746</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -686,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-1.24502235313334</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -709,7 +703,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>2.806286889124965</v>
+        <v>2.806286889124987</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,23 @@
         <v>2.806286889124987</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.560577522109297</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>2.991302072731838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
